--- a/Orthofinder/selected_output/PerSpeciesStats.xlsx
+++ b/Orthofinder/selected_output/PerSpeciesStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karin/Documents/GitHub/GenomeVanessa/Orthofinder/selected_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9501FAA-760E-1548-82B3-CCEDE81D02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC97AB-D730-034B-92BD-3962F4D80FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2040" windowWidth="27640" windowHeight="16860" xr2:uid="{D534791E-5C6A-1647-BD7C-E648E965C64D}"/>
+    <workbookView xWindow="960" yWindow="840" windowWidth="30120" windowHeight="17660" xr2:uid="{D534791E-5C6A-1647-BD7C-E648E965C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Bicyclus_anynana</t>
   </si>
@@ -92,13 +92,91 @@
   </si>
   <si>
     <t>Kolumn1</t>
+  </si>
+  <si>
+    <t>Bicyclus_anynana_BaGv2.proteins.fa.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danaus_plexippus_v3_-_proteins.fa.gz            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heliconius_erato_lativitta_v1_-_proteins.fa.gz        </t>
+  </si>
+  <si>
+    <t>Heliconius_melpomene_melpomene_Hmel2.5.proteins.fa.gz</t>
+  </si>
+  <si>
+    <t>Junonia_coenia_Jc_v2.proteins.fa.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCF_902806685.1_iAphHyp1.1_protein.faa.gz        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCF_905163445.1_ilParAegt1.1_protein.faa.gz        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCF_002938995.1_ASM293899v1_protein.faa.gz        </t>
+  </si>
+  <si>
+    <t>Genes in species-specific orthogroups</t>
+  </si>
+  <si>
+    <t>Nr of genes</t>
+  </si>
+  <si>
+    <t>Genes in orthogroups</t>
+  </si>
+  <si>
+    <t>Genes in orthogroups (%)</t>
+  </si>
+  <si>
+    <t>Species-specific orthogroups</t>
+  </si>
+  <si>
+    <t>Orthogroups containing species</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Danaus plexippus</t>
+  </si>
+  <si>
+    <t>Heliconius erato lativitta</t>
+  </si>
+  <si>
+    <t>Heliconius melpomene melpomene</t>
+  </si>
+  <si>
+    <t>Junonia coenia</t>
+  </si>
+  <si>
+    <t>Maniola hyperantus</t>
+  </si>
+  <si>
+    <t>Pararge aegeria</t>
+  </si>
+  <si>
+    <t>Vanessa cardui</t>
+  </si>
+  <si>
+    <t>Vanessa tameamea</t>
+  </si>
+  <si>
+    <t>Bicyclus anynana</t>
+  </si>
+  <si>
+    <t>Unassigned genes (%)</t>
+  </si>
+  <si>
+    <t>Genome version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,13 +184,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,13 +236,232 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -160,6 +488,24 @@
     <tableColumn id="8" xr3:uid="{B1205989-D69F-E244-884E-2C09A50B0287}" name="Pararge_aegeria"/>
     <tableColumn id="9" xr3:uid="{BDA0CAEA-D992-594B-BA9D-6FD825C3CCC1}" name="Vanessa_cardui"/>
     <tableColumn id="10" xr3:uid="{ED773E5A-B8DB-1947-B617-1F471010F5B1}" name="Vanessa_tameamea"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5389F971-5AAB-054F-AB14-549F0243BCD0}" name="Tabell2" displayName="Tabell2" ref="A16:I25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A16:I25" xr:uid="{5389F971-5AAB-054F-AB14-549F0243BCD0}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{6E53FAAE-E137-FF4F-9C7C-2E28B1148C3E}" name="Species" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4F43A668-1AC8-5841-9AB9-02C17E82619D}" name="Genome version" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E77DEC79-93BF-BB42-94E6-121C618C56E3}" name="Nr of genes" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{68CC010C-C782-AE4F-B302-310D51D6B53B}" name="Genes in orthogroups" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B710488A-5556-454A-BCEB-AE8E95BF8804}" name="Genes in orthogroups (%)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{9F25BAA6-61CB-814A-A1AB-F54801512D8E}" name="Unassigned genes (%)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C420E885-1A2F-C14B-946A-020FE27C8F8F}" name="Orthogroups containing species" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{EC0AF7F2-B851-CE43-9DFD-38B1405415CF}" name="Species-specific orthogroups" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7271F2FC-CBD8-2D47-9BD7-9D17606B2675}" name="Genes in species-specific orthogroups" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,24 +808,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC2FCFC-CB73-5641-912D-B2EF9AA304ED}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -834,10 +1181,327 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>18188</v>
+      </c>
+      <c r="D17" s="6">
+        <v>15764</v>
+      </c>
+      <c r="E17" s="6">
+        <v>86.7</v>
+      </c>
+      <c r="F17" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>11668</v>
+      </c>
+      <c r="H17" s="6">
+        <v>172</v>
+      </c>
+      <c r="I17" s="6">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6">
+        <v>15130</v>
+      </c>
+      <c r="D18" s="6">
+        <v>13853</v>
+      </c>
+      <c r="E18" s="6">
+        <v>91.6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>11567</v>
+      </c>
+      <c r="H18" s="6">
+        <v>53</v>
+      </c>
+      <c r="I18" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>14612</v>
+      </c>
+      <c r="D19" s="6">
+        <v>13189</v>
+      </c>
+      <c r="E19" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9841</v>
+      </c>
+      <c r="H19" s="6">
+        <v>104</v>
+      </c>
+      <c r="I19" s="6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6">
+        <v>17701</v>
+      </c>
+      <c r="D20" s="6">
+        <v>15990</v>
+      </c>
+      <c r="E20" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G20" s="6">
+        <v>11188</v>
+      </c>
+      <c r="H20" s="6">
+        <v>149</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6">
+        <v>17244</v>
+      </c>
+      <c r="D21" s="6">
+        <v>15444</v>
+      </c>
+      <c r="E21" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>11137</v>
+      </c>
+      <c r="H21" s="6">
+        <v>116</v>
+      </c>
+      <c r="I21" s="6">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6">
+        <v>13936</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13769</v>
+      </c>
+      <c r="E22" s="6">
+        <v>98.8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10847</v>
+      </c>
+      <c r="H22" s="6">
+        <v>35</v>
+      </c>
+      <c r="I22" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6">
+        <v>15064</v>
+      </c>
+      <c r="D23" s="6">
+        <v>14923</v>
+      </c>
+      <c r="E23" s="6">
+        <v>99.1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G23" s="6">
+        <v>10997</v>
+      </c>
+      <c r="H23" s="6">
+        <v>61</v>
+      </c>
+      <c r="I23" s="6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <v>13161</v>
+      </c>
+      <c r="D24" s="6">
+        <v>12692</v>
+      </c>
+      <c r="E24" s="6">
+        <v>96.4</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="G24" s="6">
+        <v>10361</v>
+      </c>
+      <c r="H24" s="6">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6">
+        <v>13266</v>
+      </c>
+      <c r="D25" s="6">
+        <v>13209</v>
+      </c>
+      <c r="E25" s="6">
+        <v>99.6</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10752</v>
+      </c>
+      <c r="H25" s="6">
+        <v>19</v>
+      </c>
+      <c r="I25" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>